--- a/biology/Botanique/Domaine_Faiveley/Domaine_Faiveley.xlsx
+++ b/biology/Botanique/Domaine_Faiveley/Domaine_Faiveley.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Domaine Faiveley est un domaine viticole de Bourgogne créé en 1825, situé à Nuits-Saint-Georges (Côte d'Or).
@@ -512,10 +524,12 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La maison-mère se trouve à Nuits-Saint-Georges. Propriétaire d'environ 120 hectares[1] de vignes dans la Côte de Nuits (Gevrey-Chambertin, Vosne-Romanée, Nuits-Saint-Georges...), la Côte de Beaune (Puligny-Montrachet, Aloxe-Corton) et la Cote Chalonnaise (Mercurey, Givry, ...). Elle possède aussi une antenne (cuverie, locaux, ...) à Mercurey. 
-Ce domaine appartient à la famille Faiveley depuis 1825[1] et a vu passer sept générations à sa tête. Depuis le départ, cette famille a consacré ses ressources à acquérir des vignes situées dans les meilleurs climats. De par sa superficie, Faiveley est actuellement l'un des plus grands propriétaires de vignes en Bourgogne. Son domaine lui assurant l'essentiel de ses approvisionnements grâce à ses grands vins en propriétés. Mais il existe aussi une partie négoce qui concerne surtout des vins génériques (bourgogne rouge et bourgogne blanc). Il est géré actuellement par Erwan Faiveley[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La maison-mère se trouve à Nuits-Saint-Georges. Propriétaire d'environ 120 hectares de vignes dans la Côte de Nuits (Gevrey-Chambertin, Vosne-Romanée, Nuits-Saint-Georges...), la Côte de Beaune (Puligny-Montrachet, Aloxe-Corton) et la Cote Chalonnaise (Mercurey, Givry, ...). Elle possède aussi une antenne (cuverie, locaux, ...) à Mercurey. 
+Ce domaine appartient à la famille Faiveley depuis 1825 et a vu passer sept générations à sa tête. Depuis le départ, cette famille a consacré ses ressources à acquérir des vignes situées dans les meilleurs climats. De par sa superficie, Faiveley est actuellement l'un des plus grands propriétaires de vignes en Bourgogne. Son domaine lui assurant l'essentiel de ses approvisionnements grâce à ses grands vins en propriétés. Mais il existe aussi une partie négoce qui concerne surtout des vins génériques (bourgogne rouge et bourgogne blanc). Il est géré actuellement par Erwan Faiveley.
 Ses vins les plus réputés sont en :
 Grand cru :
 Chambertin-clos-de-bèze
